--- a/SO SACH - LA/SO SACH/2013 - 2015/Sổ Sách/2015/141 - 341 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2013 - 2015/Sổ Sách/2015/141 - 341 - 15.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="341" sheetId="20" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'141-TT-TT'!$11:$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'341'!$2:$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3134,6 +3134,9 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3161,15 +3164,24 @@
     <xf numFmtId="0" fontId="37" fillId="21" borderId="26" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3182,21 +3194,24 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="25" borderId="0" xfId="54" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3212,16 +3227,46 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
@@ -3230,54 +3275,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="21" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="26" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="53" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3286,9 +3289,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="58" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="79">
@@ -3764,9 +3764,9 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D1:E1048576"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -3791,32 +3791,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="273" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
     </row>
     <row r="2" spans="1:18" s="142" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="278" t="s">
+      <c r="C2" s="279" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="140" t="s">
@@ -3839,38 +3839,38 @@
       <c r="O2" s="141"/>
     </row>
     <row r="3" spans="1:18" s="142" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="273" t="s">
+      <c r="A3" s="277"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="274" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="274"/>
-      <c r="F3" s="273" t="s">
+      <c r="E3" s="275"/>
+      <c r="F3" s="274" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="274"/>
-      <c r="H3" s="273" t="s">
+      <c r="G3" s="275"/>
+      <c r="H3" s="274" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="274"/>
-      <c r="J3" s="273" t="s">
+      <c r="I3" s="275"/>
+      <c r="J3" s="274" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="274"/>
-      <c r="L3" s="273" t="s">
+      <c r="K3" s="275"/>
+      <c r="L3" s="274" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="274"/>
-      <c r="N3" s="273" t="s">
+      <c r="M3" s="275"/>
+      <c r="N3" s="274" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="274"/>
+      <c r="O3" s="275"/>
     </row>
     <row r="4" spans="1:18" s="142" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="277"/>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280"/>
+      <c r="A4" s="278"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="281"/>
       <c r="D4" s="143" t="s">
         <v>113</v>
       </c>
@@ -6647,61 +6647,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="165" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="283"/>
-      <c r="D1" s="288" t="s">
+      <c r="C1" s="286"/>
+      <c r="D1" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="288" t="s">
+      <c r="E1" s="282" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="288" t="s">
+      <c r="F1" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="288" t="s">
+      <c r="G1" s="282" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="281" t="s">
+      <c r="H1" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="283"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="286"/>
     </row>
     <row r="2" spans="1:11" s="165" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="289"/>
-      <c r="B2" s="284" t="s">
+      <c r="A2" s="283"/>
+      <c r="B2" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="284" t="s">
+      <c r="C2" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="286" t="s">
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="287"/>
-      <c r="J2" s="286" t="s">
+      <c r="I2" s="291"/>
+      <c r="J2" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="287"/>
+      <c r="K2" s="291"/>
     </row>
     <row r="3" spans="1:11" s="165" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
+      <c r="A3" s="284"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
       <c r="H3" s="166" t="s">
         <v>113</v>
       </c>
@@ -10237,17 +10237,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42:E47 E5:E40 E75:E76 E78:E80 E66:E73 E63:E64 E52:E61 E82:E108">
@@ -10266,7 +10266,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
@@ -10297,13 +10297,13 @@
       <c r="C1" s="162"/>
       <c r="H1" s="162"/>
       <c r="I1" s="162"/>
-      <c r="J1" s="298" t="s">
+      <c r="J1" s="293" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
+      <c r="N1" s="293"/>
     </row>
     <row r="2" spans="1:14" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="161" t="s">
@@ -10313,13 +10313,13 @@
       <c r="C2" s="204"/>
       <c r="H2" s="164"/>
       <c r="I2" s="164"/>
-      <c r="J2" s="299" t="s">
+      <c r="J2" s="294" t="s">
         <v>240</v>
       </c>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
     </row>
     <row r="3" spans="1:14" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="204"/>
@@ -10327,11 +10327,11 @@
       <c r="C3" s="204"/>
       <c r="H3" s="164"/>
       <c r="I3" s="164"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="294"/>
+      <c r="N3" s="294"/>
     </row>
     <row r="4" spans="1:14" s="163" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="204"/>
@@ -10346,22 +10346,22 @@
       <c r="N4" s="205"/>
     </row>
     <row r="5" spans="1:14" s="165" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="295" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="296"/>
     </row>
     <row r="6" spans="1:14" s="165" customFormat="1">
       <c r="A6" s="292" t="s">
@@ -10428,10 +10428,10 @@
       <c r="G9" s="215" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="291" t="s">
+      <c r="H9" s="297" t="s">
         <v>378</v>
       </c>
-      <c r="I9" s="291"/>
+      <c r="I9" s="297"/>
       <c r="J9" s="216" t="str">
         <f>"ngày "&amp; TEXT(VLOOKUP($H$9,'341'!$B$5:$C$51,2,0),"dd/MM/yy")</f>
         <v>ngày 20/11/15</v>
@@ -10460,84 +10460,84 @@
       <c r="N10" s="292"/>
     </row>
     <row r="11" spans="1:14" s="165" customFormat="1">
-      <c r="C11" s="293"/>
-      <c r="D11" s="293"/>
-      <c r="E11" s="293"/>
-      <c r="F11" s="293"/>
-      <c r="G11" s="293"/>
-      <c r="H11" s="293"/>
-      <c r="I11" s="293"/>
-      <c r="J11" s="293"/>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
+      <c r="C11" s="298"/>
+      <c r="D11" s="298"/>
+      <c r="E11" s="298"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
+      <c r="I11" s="298"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="298"/>
+      <c r="L11" s="298"/>
+      <c r="M11" s="298"/>
+      <c r="N11" s="298"/>
     </row>
     <row r="12" spans="1:14" s="165" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="288" t="s">
+      <c r="A12" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="281" t="s">
+      <c r="B12" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="283"/>
-      <c r="D12" s="288" t="s">
+      <c r="C12" s="286"/>
+      <c r="D12" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="288" t="s">
+      <c r="E12" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="288" t="s">
+      <c r="F12" s="282" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="281" t="s">
+      <c r="G12" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="296"/>
-      <c r="I12" s="296"/>
-      <c r="J12" s="297"/>
-      <c r="K12" s="281" t="s">
+      <c r="H12" s="301"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="297"/>
+      <c r="L12" s="301"/>
+      <c r="M12" s="301"/>
+      <c r="N12" s="302"/>
     </row>
     <row r="13" spans="1:14" s="165" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="289"/>
-      <c r="B13" s="284" t="s">
+      <c r="A13" s="283"/>
+      <c r="B13" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="289"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="286" t="s">
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="297"/>
-      <c r="I13" s="286" t="s">
+      <c r="H13" s="302"/>
+      <c r="I13" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="297"/>
-      <c r="K13" s="286" t="s">
+      <c r="J13" s="302"/>
+      <c r="K13" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="297"/>
-      <c r="M13" s="286" t="s">
+      <c r="L13" s="302"/>
+      <c r="M13" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="297"/>
+      <c r="N13" s="302"/>
     </row>
     <row r="14" spans="1:14" s="165" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A14" s="290"/>
-      <c r="B14" s="285"/>
-      <c r="C14" s="285"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="295"/>
+      <c r="A14" s="284"/>
+      <c r="B14" s="289"/>
+      <c r="C14" s="289"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="300"/>
       <c r="G14" s="166" t="s">
         <v>113</v>
       </c>
@@ -11028,11 +11028,11 @@
     <row r="34" spans="2:4" s="220" customFormat="1"/>
     <row r="35" spans="2:4" s="220" customFormat="1"/>
     <row r="36" spans="2:4" s="220" customFormat="1" ht="15">
-      <c r="B36" s="323"/>
+      <c r="B36" s="272"/>
       <c r="C36" s="265" t="s">
         <v>440</v>
       </c>
-      <c r="D36" s="323"/>
+      <c r="D36" s="272"/>
     </row>
     <row r="37" spans="2:4" s="220" customFormat="1"/>
     <row r="38" spans="2:4" s="220" customFormat="1"/>
@@ -11044,12 +11044,6 @@
     <row r="44" spans="2:4" s="220" customFormat="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J2:N3"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="C11:N11"/>
@@ -11066,6 +11060,12 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J2:N3"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9">
@@ -11120,11 +11120,11 @@
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="313" t="s">
+      <c r="G2" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
       <c r="O2" s="15" t="s">
         <v>0</v>
       </c>
@@ -11134,11 +11134,11 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="314" t="s">
+      <c r="G3" s="308" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
@@ -11146,24 +11146,24 @@
     </row>
     <row r="4" spans="1:21">
       <c r="F4" s="3"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
       <c r="S4" s="3"/>
       <c r="T4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A5" s="317" t="s">
+      <c r="A5" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="R5" s="25"/>
@@ -11171,17 +11171,17 @@
       <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="315"/>
-      <c r="C6" s="315"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="R6" s="25"/>
@@ -11189,17 +11189,17 @@
       <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="318"/>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="318"/>
+      <c r="B7" s="315"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
       <c r="R7" s="25"/>
@@ -11207,17 +11207,17 @@
       <c r="T7" s="25"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="315" t="s">
+      <c r="A8" s="309" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="315"/>
-      <c r="C8" s="315"/>
-      <c r="D8" s="315"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="315"/>
-      <c r="G8" s="315"/>
-      <c r="H8" s="315"/>
-      <c r="I8" s="315"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="R8" s="25"/>
@@ -11225,17 +11225,17 @@
       <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="315" t="s">
+      <c r="A9" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="315"/>
-      <c r="C9" s="315"/>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="315"/>
+      <c r="B9" s="309"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="309"/>
+      <c r="G9" s="309"/>
+      <c r="H9" s="309"/>
+      <c r="I9" s="309"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
       <c r="R9" s="25"/>
@@ -11243,15 +11243,15 @@
       <c r="T9" s="25"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="319"/>
-      <c r="B10" s="319"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="319"/>
+      <c r="A10" s="316"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="316"/>
+      <c r="E10" s="316"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="316"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="R10" s="25"/>
@@ -11259,95 +11259,95 @@
       <c r="T10" s="25"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="312" t="s">
+      <c r="A11" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="304" t="s">
+      <c r="B11" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="305"/>
-      <c r="D11" s="312" t="s">
+      <c r="C11" s="312"/>
+      <c r="D11" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="312" t="s">
+      <c r="E11" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="304" t="s">
+      <c r="F11" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="305"/>
-      <c r="H11" s="304" t="s">
+      <c r="G11" s="312"/>
+      <c r="H11" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="316"/>
-      <c r="O11" s="312" t="s">
+      <c r="I11" s="313"/>
+      <c r="O11" s="310" t="s">
         <v>6</v>
       </c>
       <c r="P11" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="312" t="s">
+      <c r="Q11" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="312" t="s">
+      <c r="R11" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="304" t="s">
+      <c r="S11" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="305"/>
+      <c r="T11" s="312"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="312"/>
-      <c r="B12" s="306" t="s">
+      <c r="A12" s="310"/>
+      <c r="B12" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="308" t="s">
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="310" t="s">
+      <c r="G12" s="303" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="308" t="s">
+      <c r="H12" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="308" t="s">
+      <c r="I12" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="312"/>
-      <c r="P12" s="306" t="s">
+      <c r="O12" s="310"/>
+      <c r="P12" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="312"/>
-      <c r="R12" s="312"/>
-      <c r="S12" s="308" t="s">
+      <c r="Q12" s="310"/>
+      <c r="R12" s="310"/>
+      <c r="S12" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="310" t="s">
+      <c r="T12" s="303" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1">
-      <c r="A13" s="312"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="309"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="311"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="O13" s="312"/>
-      <c r="P13" s="307"/>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="312"/>
-      <c r="S13" s="309"/>
-      <c r="T13" s="311"/>
+      <c r="A13" s="310"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="306"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="306"/>
+      <c r="I13" s="306"/>
+      <c r="O13" s="310"/>
+      <c r="P13" s="320"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="310"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="304"/>
     </row>
     <row r="14" spans="1:21" s="260" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="26" t="s">
@@ -17393,13 +17393,13 @@
       <c r="B141" s="260"/>
       <c r="C141" s="260"/>
       <c r="D141" s="25"/>
-      <c r="E141" s="315" t="s">
+      <c r="E141" s="309" t="s">
         <v>165</v>
       </c>
-      <c r="F141" s="315"/>
-      <c r="G141" s="315"/>
-      <c r="H141" s="315"/>
-      <c r="I141" s="315"/>
+      <c r="F141" s="309"/>
+      <c r="G141" s="309"/>
+      <c r="H141" s="309"/>
+      <c r="I141" s="309"/>
       <c r="J141" s="54"/>
       <c r="K141" s="107"/>
       <c r="L141" s="54"/>
@@ -17414,58 +17414,58 @@
       <c r="U141" s="134"/>
     </row>
     <row r="142" spans="1:21" s="1" customFormat="1">
-      <c r="A142" s="315" t="s">
+      <c r="A142" s="309" t="s">
         <v>25</v>
       </c>
-      <c r="B142" s="315"/>
-      <c r="C142" s="315"/>
-      <c r="D142" s="315"/>
-      <c r="E142" s="315" t="s">
+      <c r="B142" s="309"/>
+      <c r="C142" s="309"/>
+      <c r="D142" s="309"/>
+      <c r="E142" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="F142" s="315"/>
-      <c r="G142" s="315"/>
-      <c r="H142" s="315"/>
-      <c r="I142" s="315"/>
+      <c r="F142" s="309"/>
+      <c r="G142" s="309"/>
+      <c r="H142" s="309"/>
+      <c r="I142" s="309"/>
       <c r="J142" s="54"/>
       <c r="K142" s="129"/>
       <c r="L142" s="55"/>
       <c r="M142" s="53"/>
       <c r="N142" s="53"/>
-      <c r="O142" s="303" t="s">
+      <c r="O142" s="318" t="s">
         <v>25</v>
       </c>
-      <c r="P142" s="303"/>
-      <c r="Q142" s="303"/>
+      <c r="P142" s="318"/>
+      <c r="Q142" s="318"/>
       <c r="R142" s="53"/>
       <c r="S142" s="53"/>
       <c r="T142" s="53"/>
       <c r="U142" s="134"/>
     </row>
     <row r="143" spans="1:21" s="1" customFormat="1">
-      <c r="A143" s="315" t="s">
+      <c r="A143" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="B143" s="315"/>
-      <c r="C143" s="315"/>
-      <c r="D143" s="315"/>
-      <c r="E143" s="315" t="s">
+      <c r="B143" s="309"/>
+      <c r="C143" s="309"/>
+      <c r="D143" s="309"/>
+      <c r="E143" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="F143" s="315"/>
-      <c r="G143" s="315"/>
-      <c r="H143" s="315"/>
-      <c r="I143" s="315"/>
+      <c r="F143" s="309"/>
+      <c r="G143" s="309"/>
+      <c r="H143" s="309"/>
+      <c r="I143" s="309"/>
       <c r="J143" s="54"/>
       <c r="K143" s="128"/>
       <c r="L143" s="54"/>
       <c r="M143" s="53"/>
       <c r="N143" s="53"/>
-      <c r="O143" s="303" t="s">
+      <c r="O143" s="318" t="s">
         <v>27</v>
       </c>
-      <c r="P143" s="303"/>
-      <c r="Q143" s="303"/>
+      <c r="P143" s="318"/>
+      <c r="Q143" s="318"/>
       <c r="R143" s="53"/>
       <c r="S143" s="53"/>
       <c r="T143" s="53"/>
@@ -17556,12 +17556,12 @@
       <c r="T148" s="55"/>
     </row>
     <row r="149" spans="1:20">
-      <c r="A149" s="302" t="s">
+      <c r="A149" s="317" t="s">
         <v>440</v>
       </c>
-      <c r="B149" s="302"/>
-      <c r="C149" s="302"/>
-      <c r="D149" s="302"/>
+      <c r="B149" s="317"/>
+      <c r="C149" s="317"/>
+      <c r="D149" s="317"/>
       <c r="J149" s="49"/>
       <c r="K149" s="130"/>
       <c r="L149" s="49"/>
@@ -18207,25 +18207,6 @@
   </sheetData>
   <autoFilter ref="A14:N137"/>
   <mergeCells count="35">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E141:I141"/>
-    <mergeCell ref="E142:I142"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A149:D149"/>
     <mergeCell ref="O142:Q142"/>
     <mergeCell ref="O143:Q143"/>
@@ -18242,6 +18223,25 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E143:I143"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E141:I141"/>
+    <mergeCell ref="E142:I142"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="F35 S53">
@@ -18323,11 +18323,11 @@
       <c r="D2" s="25"/>
       <c r="E2" s="260"/>
       <c r="F2" s="260"/>
-      <c r="G2" s="313" t="s">
+      <c r="G2" s="307" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
       <c r="N2" s="260"/>
       <c r="O2" s="260"/>
       <c r="P2" s="25"/>
@@ -18344,11 +18344,11 @@
       <c r="D3" s="25"/>
       <c r="E3" s="260"/>
       <c r="F3" s="260"/>
-      <c r="G3" s="314" t="s">
+      <c r="G3" s="308" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
       <c r="N3" s="260"/>
       <c r="O3" s="260"/>
       <c r="P3" s="25"/>
@@ -18363,9 +18363,9 @@
       <c r="D4" s="25"/>
       <c r="E4" s="260"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
       <c r="N4" s="260"/>
       <c r="O4" s="260"/>
       <c r="P4" s="25"/>
@@ -18374,17 +18374,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A5" s="317" t="s">
+      <c r="A5" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1"/>
@@ -18392,17 +18392,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="315"/>
-      <c r="C6" s="315"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
@@ -18410,17 +18410,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -18428,19 +18428,19 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="315" t="s">
+      <c r="A8" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="315"/>
-      <c r="D8" s="315"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="315"/>
-      <c r="G8" s="315"/>
-      <c r="H8" s="315"/>
-      <c r="I8" s="315"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -18448,17 +18448,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="315" t="s">
+      <c r="A9" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="318"/>
-      <c r="C9" s="318"/>
-      <c r="D9" s="318"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="318"/>
-      <c r="G9" s="318"/>
-      <c r="H9" s="318"/>
-      <c r="I9" s="318"/>
+      <c r="B9" s="315"/>
+      <c r="C9" s="315"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="315"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -18468,13 +18468,13 @@
     <row r="10" spans="1:20">
       <c r="A10" s="260"/>
       <c r="B10" s="260"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="320"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="320"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="321"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
       <c r="N10" s="260"/>
       <c r="O10" s="1"/>
       <c r="Q10" s="1"/>
@@ -18482,95 +18482,95 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="312" t="s">
+      <c r="A11" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="304" t="s">
+      <c r="B11" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="305"/>
-      <c r="D11" s="312" t="s">
+      <c r="C11" s="312"/>
+      <c r="D11" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="312" t="s">
+      <c r="E11" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="304" t="s">
+      <c r="F11" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="305"/>
-      <c r="H11" s="304" t="s">
+      <c r="G11" s="312"/>
+      <c r="H11" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="316"/>
-      <c r="N11" s="304" t="s">
+      <c r="I11" s="313"/>
+      <c r="N11" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="305"/>
-      <c r="P11" s="312" t="s">
+      <c r="O11" s="312"/>
+      <c r="P11" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="312" t="s">
+      <c r="Q11" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="304" t="s">
+      <c r="R11" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="305"/>
+      <c r="S11" s="312"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="312"/>
-      <c r="B12" s="308" t="s">
+      <c r="A12" s="310"/>
+      <c r="B12" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="308" t="s">
+      <c r="C12" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="308" t="s">
+      <c r="D12" s="310"/>
+      <c r="E12" s="310"/>
+      <c r="F12" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="310" t="s">
+      <c r="G12" s="303" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="308" t="s">
+      <c r="H12" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="308" t="s">
+      <c r="I12" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="308" t="s">
+      <c r="N12" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="308" t="s">
+      <c r="O12" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="312"/>
-      <c r="Q12" s="312"/>
-      <c r="R12" s="308" t="s">
+      <c r="P12" s="310"/>
+      <c r="Q12" s="310"/>
+      <c r="R12" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="310" t="s">
+      <c r="S12" s="303" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A13" s="312"/>
-      <c r="B13" s="309"/>
-      <c r="C13" s="309"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="311"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="309"/>
-      <c r="P13" s="312"/>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="309"/>
-      <c r="S13" s="311"/>
+      <c r="A13" s="310"/>
+      <c r="B13" s="306"/>
+      <c r="C13" s="306"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="310"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="306"/>
+      <c r="I13" s="306"/>
+      <c r="N13" s="306"/>
+      <c r="O13" s="306"/>
+      <c r="P13" s="310"/>
+      <c r="Q13" s="310"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="304"/>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="9.75" customHeight="1">
       <c r="A14" s="26" t="s">
@@ -26299,13 +26299,13 @@
       <c r="B182" s="260"/>
       <c r="C182" s="260"/>
       <c r="D182" s="25"/>
-      <c r="E182" s="315" t="s">
+      <c r="E182" s="309" t="s">
         <v>165</v>
       </c>
-      <c r="F182" s="315"/>
-      <c r="G182" s="315"/>
-      <c r="H182" s="315"/>
-      <c r="I182" s="315"/>
+      <c r="F182" s="309"/>
+      <c r="G182" s="309"/>
+      <c r="H182" s="309"/>
+      <c r="I182" s="309"/>
       <c r="J182" s="47"/>
       <c r="L182" s="53"/>
       <c r="M182" s="53"/>
@@ -26317,19 +26317,19 @@
       <c r="S182" s="53"/>
     </row>
     <row r="183" spans="1:21">
-      <c r="A183" s="315" t="s">
+      <c r="A183" s="309" t="s">
         <v>25</v>
       </c>
-      <c r="B183" s="315"/>
-      <c r="C183" s="315"/>
-      <c r="D183" s="315"/>
-      <c r="E183" s="315" t="s">
+      <c r="B183" s="309"/>
+      <c r="C183" s="309"/>
+      <c r="D183" s="309"/>
+      <c r="E183" s="309" t="s">
         <v>26</v>
       </c>
-      <c r="F183" s="315"/>
-      <c r="G183" s="315"/>
-      <c r="H183" s="315"/>
-      <c r="I183" s="315"/>
+      <c r="F183" s="309"/>
+      <c r="G183" s="309"/>
+      <c r="H183" s="309"/>
+      <c r="I183" s="309"/>
       <c r="J183" s="47"/>
       <c r="L183" s="53"/>
       <c r="M183" s="53"/>
@@ -26341,19 +26341,19 @@
       <c r="S183" s="53"/>
     </row>
     <row r="184" spans="1:21">
-      <c r="A184" s="315" t="s">
+      <c r="A184" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="B184" s="315"/>
-      <c r="C184" s="315"/>
-      <c r="D184" s="315"/>
-      <c r="E184" s="315" t="s">
+      <c r="B184" s="309"/>
+      <c r="C184" s="309"/>
+      <c r="D184" s="309"/>
+      <c r="E184" s="309" t="s">
         <v>27</v>
       </c>
-      <c r="F184" s="315"/>
-      <c r="G184" s="315"/>
-      <c r="H184" s="315"/>
-      <c r="I184" s="315"/>
+      <c r="F184" s="309"/>
+      <c r="G184" s="309"/>
+      <c r="H184" s="309"/>
+      <c r="I184" s="309"/>
       <c r="J184" s="54"/>
       <c r="K184" s="193"/>
       <c r="L184" s="54"/>
@@ -26430,12 +26430,12 @@
       <c r="R190" s="13"/>
     </row>
     <row r="191" spans="1:21" s="25" customFormat="1">
-      <c r="A191" s="302" t="s">
+      <c r="A191" s="317" t="s">
         <v>440</v>
       </c>
-      <c r="B191" s="302"/>
-      <c r="C191" s="302"/>
-      <c r="D191" s="302"/>
+      <c r="B191" s="317"/>
+      <c r="C191" s="317"/>
+      <c r="D191" s="317"/>
       <c r="E191" s="260"/>
       <c r="F191" s="260"/>
       <c r="G191" s="41"/>
@@ -26518,40 +26518,40 @@
   </sheetData>
   <autoFilter ref="A14:Q178"/>
   <mergeCells count="34">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="E184:I184"/>
+    <mergeCell ref="E182:I182"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="E183:I183"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="E184:I184"/>
-    <mergeCell ref="E182:I182"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="E183:I183"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.9" right="0.3" top="0.3" bottom="0.3" header="0.16" footer="0.15"/>
@@ -26610,38 +26610,38 @@
       <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="322" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="321"/>
+      <c r="B3" s="322"/>
       <c r="D3" s="86">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="315" t="str">
+      <c r="A4" s="309" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Ngày  "&amp;DAY(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-BH'!O$1,SMALL(Dong02,ROWS($1:1)),)))</f>
         <v>Ngày  30  tháng  12   năm   2015</v>
       </c>
-      <c r="B4" s="315"/>
+      <c r="B4" s="309"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="61" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong02),"","Số:   "&amp;OFFSET('141-BH'!P$1,SMALL(Dong02,ROWS($1:1)),))</f>
         <v>Số:   TU22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="322"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="322"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="61" t="s">
         <v>78</v>
       </c>
@@ -27599,38 +27599,38 @@
       <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="322" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="321"/>
+      <c r="B3" s="322"/>
       <c r="D3" s="86">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="315" t="str">
+      <c r="A4" s="309" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Ngày  "&amp;DAY(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"  tháng  "&amp;MONTH(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),))&amp;"   năm   "&amp;YEAR(OFFSET('141-TT'!O$1,SMALL(Dong04,ROWS($1:1)),)))</f>
         <v>Ngày  30  tháng  12   năm   2015</v>
       </c>
-      <c r="B4" s="315"/>
+      <c r="B4" s="309"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="61" t="str">
         <f ca="1">IF(ROWS($1:1)&gt;COUNT(Dong04),"","Số:   "&amp;OFFSET('141-TT'!N$1,SMALL(Dong04,ROWS($1:1)),))</f>
         <v>Số:   TU23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="322"/>
+      <c r="A6" s="323"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="322"/>
+      <c r="A7" s="323"/>
       <c r="B7" s="61" t="s">
         <v>78</v>
       </c>
